--- a/biology/Botanique/Minuartia_sedoides/Minuartia_sedoides.xlsx
+++ b/biology/Botanique/Minuartia_sedoides/Minuartia_sedoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Minuartia sedoides, l'alsine naine ou minuartie faux orpin[2], est une espèce de plantes de la famille des Caryophyllaceae, originaire d'Europe. Ce sont des plantes herbacées vivaces, à souche ligneuse, qui poussent en formant des coussinets denses de 5 cm de haut environ. C'est une espèce montagnarde  qui se rencontre au dessus de 1700 mètres d'altitude.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minuartia sedoides, l'alsine naine ou minuartie faux orpin, est une espèce de plantes de la famille des Caryophyllaceae, originaire d'Europe. Ce sont des plantes herbacées vivaces, à souche ligneuse, qui poussent en formant des coussinets denses de 5 cm de haut environ. C'est une espèce montagnarde  qui se rencontre au dessus de 1700 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -513,17 +525,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (14 avril 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (14 avril 2019) :
 Alsine canaliculata Dulac
 Alsine sedoides (L.) Kitt.
 Arenaria cherleria (Peterm.) Ardoino
 Arenaria sedoides (L.) Druce
 Cherleria caespitosa Lam.
-Cherleria sedoides L. (préféré par NCBI)[3]
+Cherleria sedoides L. (préféré par NCBI)
 Cherleria sedoides L.
-Cherleria sedoides[4]
-Minuartia sedoides[3]
+Cherleria sedoides
+Minuartia sedoides
 </t>
         </is>
       </c>
